--- a/Japanese/プロジェクトサンプル/変則2交代学習/source/不正行パターン演習.xlsx
+++ b/Japanese/プロジェクトサンプル/変則2交代学習/source/不正行パターン演習.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54" count="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59" count="280">
   <si>
     <t>スタッフ名</t>
   </si>
@@ -40,7 +40,7 @@
     <t>第5週</t>
   </si>
   <si>
-    <t>チーム</t>
+    <t>コメント</t>
   </si>
   <si>
     <t>木</t>
@@ -73,7 +73,7 @@
     <t>スタッフ2</t>
   </si>
   <si>
-    <t>A</t>
+    <t>夜勤4回まで</t>
   </si>
   <si>
     <t>★</t>
@@ -91,9 +91,6 @@
     <t>スタッフ3</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>スタッフ4</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
     <t>スタッフ9</t>
   </si>
   <si>
+    <t>夜勤3回まで</t>
+  </si>
+  <si>
     <t>スタッフ10</t>
   </si>
   <si>
@@ -136,6 +136,9 @@
     <t>スタッフ16</t>
   </si>
   <si>
+    <t>新人　月前半長夜勤なし　</t>
+  </si>
+  <si>
     <t>スタッフ17</t>
   </si>
   <si>
@@ -148,12 +151,21 @@
     <t>スタッフ20</t>
   </si>
   <si>
+    <t>土日休み日勤のみ</t>
+  </si>
+  <si>
     <t>スタッフ21</t>
   </si>
   <si>
+    <t>夜勤土日のみ3回まで</t>
+  </si>
+  <si>
     <t>スタッフ22</t>
   </si>
   <si>
+    <t>長入明　水木金3回まで</t>
+  </si>
+  <si>
     <t>スタッフ23</t>
   </si>
   <si>
@@ -176,6 +188,9 @@
   </si>
   <si>
     <t>スタッフ30</t>
+  </si>
+  <si>
+    <t>新人　月前半長夜勤なし</t>
   </si>
 </sst>
 </file>
@@ -743,19 +758,19 @@
         <v>16</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="14" t="s">
@@ -856,19 +871,19 @@
       <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="1"/>
@@ -911,21 +926,21 @@
         <v>24</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="1"/>
@@ -965,24 +980,22 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1020,24 +1033,22 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="1"/>
@@ -1085,24 +1096,22 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="1"/>
@@ -1121,25 +1130,25 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
@@ -1152,24 +1161,22 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="1"/>
@@ -1205,24 +1212,22 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="1"/>
@@ -1258,24 +1263,24 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="1"/>
@@ -1313,22 +1318,20 @@
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="14" t="s">
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="1"/>
@@ -1366,22 +1369,20 @@
       <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="1"/>
@@ -1419,22 +1420,20 @@
       <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="14" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="1"/>
@@ -1472,22 +1471,20 @@
       <c r="A16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="1"/>
@@ -1525,22 +1522,20 @@
       <c r="A17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="1"/>
@@ -1578,22 +1573,20 @@
       <c r="A18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="1"/>
@@ -1632,21 +1625,21 @@
         <v>39</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="1"/>
@@ -1682,24 +1675,22 @@
     </row>
     <row r="20" spans="1:37">
       <c r="A20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="1"/>
@@ -1735,24 +1726,22 @@
     </row>
     <row r="21" spans="1:37">
       <c r="A21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="1"/>
@@ -1788,24 +1777,22 @@
     </row>
     <row r="22" spans="1:37">
       <c r="A22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="14" t="s">
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="1"/>
@@ -1841,24 +1828,24 @@
     </row>
     <row r="23" spans="1:37">
       <c r="A23" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="14" t="s">
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="1"/>
@@ -1894,24 +1881,24 @@
     </row>
     <row r="24" spans="1:37">
       <c r="A24" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="1"/>
@@ -1947,24 +1934,24 @@
     </row>
     <row r="25" spans="1:37">
       <c r="A25" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="1"/>
@@ -2000,24 +1987,22 @@
     </row>
     <row r="26" spans="1:37">
       <c r="A26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="1"/>
@@ -2053,24 +2038,22 @@
     </row>
     <row r="27" spans="1:37">
       <c r="A27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="14" t="s">
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="1"/>
@@ -2106,24 +2089,22 @@
     </row>
     <row r="28" spans="1:37">
       <c r="A28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="1"/>
@@ -2159,24 +2140,22 @@
     </row>
     <row r="29" spans="1:37">
       <c r="A29" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="14" t="s">
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H29" s="1"/>
@@ -2212,24 +2191,22 @@
     </row>
     <row r="30" spans="1:37">
       <c r="A30" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="1"/>
@@ -2265,24 +2242,22 @@
     </row>
     <row r="31" spans="1:37">
       <c r="A31" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="1"/>
@@ -2318,24 +2293,22 @@
     </row>
     <row r="32" spans="1:37">
       <c r="A32" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H32" s="1"/>
@@ -2371,24 +2344,24 @@
     </row>
     <row r="33" spans="1:37">
       <c r="A33" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="14" t="s">
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="1"/>
